--- a/测试基础/等价类用例_案例练习.xlsx
+++ b/测试基础/等价类用例_案例练习.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\软件测试\测试基础\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CB3003-6807-460A-9A8B-B7B5864FF2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88ADECE-FDCA-442F-B831-1C0040CD63C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16410" yWindow="2070" windowWidth="25185" windowHeight="15150" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-150" yWindow="1935" windowWidth="22365" windowHeight="15960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="练习QQ登陆" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="145">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -612,6 +612,21 @@
   </si>
   <si>
     <t>123+234+123A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过(pass)</t>
+  </si>
+  <si>
+    <t>通过(pass)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不通过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,7 +634,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -641,6 +656,21 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -684,7 +714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -723,6 +753,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1006,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:H4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1159,10 +1198,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684B21B5-03DD-4E62-A177-A2B7AA4EC150}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1177,12 +1216,12 @@
     <col min="12" max="12" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>31</v>
       </c>
@@ -1190,7 +1229,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>32</v>
       </c>
@@ -1198,7 +1237,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>34</v>
       </c>
@@ -1206,7 +1245,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>37</v>
       </c>
@@ -1217,7 +1256,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>40</v>
       </c>
@@ -1225,12 +1264,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>43</v>
       </c>
@@ -1241,12 +1280,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="F13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1271,8 +1310,11 @@
       <c r="M13" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+      <c r="N13" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="57" x14ac:dyDescent="0.2">
       <c r="F14" s="2" t="s">
         <v>46</v>
       </c>
@@ -1297,8 +1339,11 @@
       <c r="M14" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+      <c r="N14" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="57" x14ac:dyDescent="0.2">
       <c r="F15" s="2" t="s">
         <v>47</v>
       </c>
@@ -1323,8 +1368,11 @@
       <c r="M15" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+      <c r="N15" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="57" x14ac:dyDescent="0.2">
       <c r="F16" s="2" t="s">
         <v>48</v>
       </c>
@@ -1349,8 +1397,11 @@
       <c r="M16" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="17" spans="6:13" ht="57" x14ac:dyDescent="0.2">
+      <c r="N16" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="6:14" ht="57" x14ac:dyDescent="0.2">
       <c r="F17" s="2" t="s">
         <v>49</v>
       </c>
@@ -1375,8 +1426,11 @@
       <c r="M17" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="18" spans="6:13" ht="57" x14ac:dyDescent="0.2">
+      <c r="N17" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="6:14" ht="57" x14ac:dyDescent="0.2">
       <c r="F18" s="2" t="s">
         <v>50</v>
       </c>
@@ -1400,6 +1454,9 @@
       </c>
       <c r="M18" s="3" t="s">
         <v>66</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1411,10 +1468,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81E09DC-6152-4DD0-A7D9-C602B2ADE2FA}">
-  <dimension ref="A2:P38"/>
+  <dimension ref="A2:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1427,17 +1484,17 @@
     <col min="15" max="15" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C5" s="7" t="s">
         <v>68</v>
       </c>
@@ -1457,7 +1514,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C6" s="8" t="s">
         <v>72</v>
       </c>
@@ -1477,7 +1534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="8" t="s">
         <v>73</v>
       </c>
@@ -1495,7 +1552,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="8" t="s">
         <v>84</v>
       </c>
@@ -1513,7 +1570,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="8" t="s">
         <v>72</v>
       </c>
@@ -1533,7 +1590,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="8" t="s">
         <v>73</v>
       </c>
@@ -1551,7 +1608,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="8" t="s">
         <v>84</v>
       </c>
@@ -1569,7 +1626,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="8" t="s">
         <v>72</v>
       </c>
@@ -1589,7 +1646,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C13" s="8" t="s">
         <v>73</v>
       </c>
@@ -1607,7 +1664,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="8" t="s">
         <v>84</v>
       </c>
@@ -1625,7 +1682,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F15" s="13">
         <v>2</v>
       </c>
@@ -1633,7 +1690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>91</v>
       </c>
@@ -1661,8 +1718,11 @@
       <c r="P16" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" ht="57" x14ac:dyDescent="0.2">
+      <c r="Q16" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="57" x14ac:dyDescent="0.2">
       <c r="I17" s="2" t="s">
         <v>92</v>
       </c>
@@ -1687,8 +1747,11 @@
       <c r="P17" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="57" x14ac:dyDescent="0.2">
+      <c r="Q17" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="57" x14ac:dyDescent="0.2">
       <c r="I18" s="2" t="s">
         <v>93</v>
       </c>
@@ -1713,8 +1776,11 @@
       <c r="P18" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" ht="57" x14ac:dyDescent="0.2">
+      <c r="Q18" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="57" x14ac:dyDescent="0.2">
       <c r="I19" s="2" t="s">
         <v>94</v>
       </c>
@@ -1739,8 +1805,11 @@
       <c r="P19" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" ht="57" x14ac:dyDescent="0.2">
+      <c r="Q19" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="57" x14ac:dyDescent="0.2">
       <c r="I20" s="2" t="s">
         <v>95</v>
       </c>
@@ -1765,8 +1834,11 @@
       <c r="P20" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" ht="57" x14ac:dyDescent="0.2">
+      <c r="Q20" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="57" x14ac:dyDescent="0.2">
       <c r="I21" s="2" t="s">
         <v>96</v>
       </c>
@@ -1791,8 +1863,11 @@
       <c r="P21" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="57" x14ac:dyDescent="0.2">
+      <c r="Q21" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="57" x14ac:dyDescent="0.2">
       <c r="I22" s="2" t="s">
         <v>97</v>
       </c>
@@ -1817,8 +1892,11 @@
       <c r="P22" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" ht="57" x14ac:dyDescent="0.2">
+      <c r="Q22" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="57" x14ac:dyDescent="0.2">
       <c r="I23" s="2" t="s">
         <v>98</v>
       </c>
@@ -1843,8 +1921,11 @@
       <c r="P23" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" ht="57" x14ac:dyDescent="0.2">
+      <c r="Q23" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="57" x14ac:dyDescent="0.2">
       <c r="I24" s="2" t="s">
         <v>99</v>
       </c>
@@ -1869,8 +1950,11 @@
       <c r="P24" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" ht="57" x14ac:dyDescent="0.2">
+      <c r="Q24" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="57" x14ac:dyDescent="0.2">
       <c r="I25" s="2" t="s">
         <v>100</v>
       </c>
@@ -1895,8 +1979,11 @@
       <c r="P25" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" ht="57" x14ac:dyDescent="0.2">
+      <c r="Q25" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="57" x14ac:dyDescent="0.2">
       <c r="I26" s="2" t="s">
         <v>101</v>
       </c>
@@ -1921,8 +2008,11 @@
       <c r="P26" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>127</v>
       </c>
@@ -1930,7 +2020,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>130</v>
       </c>
@@ -1938,7 +2028,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>131</v>
       </c>
